--- a/MainTop/22.10.2024/имена_бирки.xlsx
+++ b/MainTop/22.10.2024/имена_бирки.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">Оценка IDC</t>
   </si>
   <si>
+    <t xml:space="preserve">На 3 коробки!!!!!!!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Num_Copies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">На 3 коробки!!!!!!!!</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Максим</t>
@@ -351,10 +351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M60" activeCellId="0" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -382,10 +382,10 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -415,6 +415,10 @@
       <c r="I2" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">G2/3*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -442,6 +446,10 @@
       <c r="I3" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">G3/3*2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -469,6 +477,10 @@
       <c r="I4" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">G4/3*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -496,6 +508,10 @@
       <c r="I5" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">G5/3*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -523,6 +539,10 @@
       <c r="I6" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">G6/3*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -550,6 +570,10 @@
       <c r="I7" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">G7/3*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -577,6 +601,10 @@
       <c r="I8" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">G8/3*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -604,6 +632,10 @@
       <c r="I9" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">G9/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -631,6 +663,10 @@
       <c r="I10" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">G10/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -658,6 +694,10 @@
       <c r="I11" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">G11/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -685,6 +725,10 @@
       <c r="I12" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">G12/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -712,6 +756,10 @@
       <c r="I13" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">G13/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -739,6 +787,10 @@
       <c r="I14" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">G14/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -766,6 +818,10 @@
       <c r="I15" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">G15/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -793,6 +849,10 @@
       <c r="I16" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">G16/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -820,6 +880,10 @@
       <c r="I17" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">G17/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -847,6 +911,10 @@
       <c r="I18" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">G18/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -874,6 +942,10 @@
       <c r="I19" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">G19/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -901,6 +973,10 @@
       <c r="I20" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">G20/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -928,6 +1004,10 @@
       <c r="I21" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">G21/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -955,6 +1035,10 @@
       <c r="I22" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">G22/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -982,6 +1066,10 @@
       <c r="I23" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">G23/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1009,6 +1097,10 @@
       <c r="I24" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">G24/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1036,6 +1128,10 @@
       <c r="I25" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">G25/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -1063,6 +1159,10 @@
       <c r="I26" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">G26/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1090,6 +1190,10 @@
       <c r="I27" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">G27/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1117,6 +1221,10 @@
       <c r="I28" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">G28/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -1144,6 +1252,10 @@
       <c r="I29" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">G29/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1171,6 +1283,10 @@
       <c r="I30" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">G30/3*2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -1198,6 +1314,10 @@
       <c r="I31" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">G31/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1225,6 +1345,10 @@
       <c r="I32" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">G32/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1252,6 +1376,10 @@
       <c r="I33" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">G33/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -1279,6 +1407,10 @@
       <c r="I34" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">G34/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1306,6 +1438,10 @@
       <c r="I35" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">G35/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1333,6 +1469,10 @@
       <c r="I36" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">G36/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -1360,6 +1500,10 @@
       <c r="I37" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">G37/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -1387,6 +1531,10 @@
       <c r="I38" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">G38/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -1414,6 +1562,10 @@
       <c r="I39" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">G39/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -1441,6 +1593,10 @@
       <c r="I40" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">G40/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -1468,6 +1624,10 @@
       <c r="I41" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">G41/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -1495,6 +1655,10 @@
       <c r="I42" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">G42/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -1522,6 +1686,10 @@
       <c r="I43" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">G43/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -1549,6 +1717,10 @@
       <c r="I44" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">G44/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1576,6 +1748,10 @@
       <c r="I45" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">G45/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -1603,6 +1779,10 @@
       <c r="I46" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">G46/3*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -1630,6 +1810,10 @@
       <c r="I47" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">G47/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1657,6 +1841,10 @@
       <c r="I48" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">G48/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -1684,6 +1872,10 @@
       <c r="I49" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">G49/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -1711,6 +1903,10 @@
       <c r="I50" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">G50/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -1738,6 +1934,10 @@
       <c r="I51" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">G51/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -1765,6 +1965,10 @@
       <c r="I52" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">G52/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -1792,6 +1996,10 @@
       <c r="I53" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">G53/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -1819,6 +2027,10 @@
       <c r="I54" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">G54/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -1846,6 +2058,10 @@
       <c r="I55" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">G55/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -1873,6 +2089,10 @@
       <c r="I56" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">G56/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -1900,6 +2120,10 @@
       <c r="I57" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">G57/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -1927,6 +2151,10 @@
       <c r="I58" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">G58/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -1954,6 +2182,10 @@
       <c r="I59" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">G59/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -1981,6 +2213,10 @@
       <c r="I60" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K60" s="0" t="n">
+        <f aca="false">G60/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -2008,6 +2244,10 @@
       <c r="I61" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">G61/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -2035,6 +2275,10 @@
       <c r="I62" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K62" s="0" t="n">
+        <f aca="false">G62/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -2062,6 +2306,10 @@
       <c r="I63" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K63" s="0" t="n">
+        <f aca="false">G63/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -2089,6 +2337,10 @@
       <c r="I64" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K64" s="0" t="n">
+        <f aca="false">G64/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -2116,6 +2368,10 @@
       <c r="I65" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K65" s="0" t="n">
+        <f aca="false">G65/3*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -2142,6 +2398,24 @@
       </c>
       <c r="I66" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <f aca="false">G66/3*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G67" s="0" t="n">
+        <f aca="false">SUM(G2:G66)</f>
+        <v>450</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <f aca="false">G67/3</f>
+        <v>150</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <f aca="false">SUM(K2:K66)</f>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/MainTop/22.10.2024/имена_бирки.xlsx
+++ b/MainTop/22.10.2024/имена_бирки.xlsx
@@ -351,10 +351,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M60" activeCellId="0" sqref="M60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M66" activeCellId="0" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -419,6 +419,10 @@
         <f aca="false">G2/3*2</f>
         <v>12</v>
       </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">K2/2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -450,6 +454,10 @@
         <f aca="false">G3/3*2</f>
         <v>12</v>
       </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">K3/2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -481,6 +489,10 @@
         <f aca="false">G4/3*2</f>
         <v>8</v>
       </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">K4/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -512,6 +524,10 @@
         <f aca="false">G5/3*2</f>
         <v>8</v>
       </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">K5/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -543,6 +559,10 @@
         <f aca="false">G6/3*2</f>
         <v>8</v>
       </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">K6/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -574,6 +594,10 @@
         <f aca="false">G7/3*2</f>
         <v>8</v>
       </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">K7/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -605,6 +629,10 @@
         <f aca="false">G8/3*2</f>
         <v>8</v>
       </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">K8/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -636,6 +664,10 @@
         <f aca="false">G9/3*2</f>
         <v>6</v>
       </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">K9/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -667,6 +699,10 @@
         <f aca="false">G10/3*2</f>
         <v>6</v>
       </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">K10/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -698,6 +734,10 @@
         <f aca="false">G11/3*2</f>
         <v>6</v>
       </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">K11/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -729,6 +769,10 @@
         <f aca="false">G12/3*2</f>
         <v>6</v>
       </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">K12/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -760,6 +804,10 @@
         <f aca="false">G13/3*2</f>
         <v>6</v>
       </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">K13/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -791,6 +839,10 @@
         <f aca="false">G14/3*2</f>
         <v>6</v>
       </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">K14/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -822,6 +874,10 @@
         <f aca="false">G15/3*2</f>
         <v>6</v>
       </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">K15/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -853,6 +909,10 @@
         <f aca="false">G16/3*2</f>
         <v>6</v>
       </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">K16/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -884,6 +944,10 @@
         <f aca="false">G17/3*2</f>
         <v>6</v>
       </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">K17/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -915,6 +979,10 @@
         <f aca="false">G18/3*2</f>
         <v>6</v>
       </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">K18/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -946,6 +1014,10 @@
         <f aca="false">G19/3*2</f>
         <v>6</v>
       </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">K19/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -977,6 +1049,10 @@
         <f aca="false">G20/3*2</f>
         <v>6</v>
       </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">K20/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1008,6 +1084,10 @@
         <f aca="false">G21/3*2</f>
         <v>6</v>
       </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">K21/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1039,6 +1119,10 @@
         <f aca="false">G22/3*2</f>
         <v>6</v>
       </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">K22/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1070,6 +1154,10 @@
         <f aca="false">G23/3*2</f>
         <v>6</v>
       </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">K23/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1101,6 +1189,10 @@
         <f aca="false">G24/3*2</f>
         <v>6</v>
       </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">K24/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1132,6 +1224,10 @@
         <f aca="false">G25/3*2</f>
         <v>6</v>
       </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">K25/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -1163,6 +1259,10 @@
         <f aca="false">G26/3*2</f>
         <v>6</v>
       </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">K26/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1194,6 +1294,10 @@
         <f aca="false">G27/3*2</f>
         <v>6</v>
       </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">K27/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1225,6 +1329,10 @@
         <f aca="false">G28/3*2</f>
         <v>6</v>
       </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">K28/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -1256,6 +1364,10 @@
         <f aca="false">G29/3*2</f>
         <v>6</v>
       </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">K29/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1287,6 +1399,10 @@
         <f aca="false">G30/3*2</f>
         <v>6</v>
       </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">K30/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -1318,6 +1434,10 @@
         <f aca="false">G31/3*2</f>
         <v>4</v>
       </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">K31/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1349,6 +1469,10 @@
         <f aca="false">G32/3*2</f>
         <v>4</v>
       </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">K32/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1380,6 +1504,10 @@
         <f aca="false">G33/3*2</f>
         <v>4</v>
       </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">K33/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -1411,6 +1539,10 @@
         <f aca="false">G34/3*2</f>
         <v>4</v>
       </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">K34/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1442,6 +1574,10 @@
         <f aca="false">G35/3*2</f>
         <v>4</v>
       </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">K35/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1473,6 +1609,10 @@
         <f aca="false">G36/3*2</f>
         <v>4</v>
       </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">K36/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -1504,6 +1644,10 @@
         <f aca="false">G37/3*2</f>
         <v>4</v>
       </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">K37/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -1535,6 +1679,10 @@
         <f aca="false">G38/3*2</f>
         <v>4</v>
       </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">K38/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -1566,6 +1714,10 @@
         <f aca="false">G39/3*2</f>
         <v>4</v>
       </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">K39/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -1597,6 +1749,10 @@
         <f aca="false">G40/3*2</f>
         <v>4</v>
       </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">K40/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -1628,6 +1784,10 @@
         <f aca="false">G41/3*2</f>
         <v>4</v>
       </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">K41/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -1659,6 +1819,10 @@
         <f aca="false">G42/3*2</f>
         <v>4</v>
       </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">K42/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -1690,6 +1854,10 @@
         <f aca="false">G43/3*2</f>
         <v>4</v>
       </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">K43/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -1721,6 +1889,10 @@
         <f aca="false">G44/3*2</f>
         <v>4</v>
       </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">K44/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1752,6 +1924,10 @@
         <f aca="false">G45/3*2</f>
         <v>4</v>
       </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">K45/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -1783,6 +1959,10 @@
         <f aca="false">G46/3*2</f>
         <v>4</v>
       </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">K46/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -1814,6 +1994,10 @@
         <f aca="false">G47/3*2</f>
         <v>2</v>
       </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">K47/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1845,6 +2029,10 @@
         <f aca="false">G48/3*2</f>
         <v>2</v>
       </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">K48/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -1876,6 +2064,10 @@
         <f aca="false">G49/3*2</f>
         <v>2</v>
       </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">K49/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -1907,6 +2099,10 @@
         <f aca="false">G50/3*2</f>
         <v>2</v>
       </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">K50/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -1938,6 +2134,10 @@
         <f aca="false">G51/3*2</f>
         <v>2</v>
       </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">K51/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -1969,6 +2169,10 @@
         <f aca="false">G52/3*2</f>
         <v>2</v>
       </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">K52/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -2000,6 +2204,10 @@
         <f aca="false">G53/3*2</f>
         <v>2</v>
       </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">K53/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -2031,6 +2239,10 @@
         <f aca="false">G54/3*2</f>
         <v>2</v>
       </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">K54/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -2062,6 +2274,10 @@
         <f aca="false">G55/3*2</f>
         <v>2</v>
       </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">K55/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -2093,6 +2309,10 @@
         <f aca="false">G56/3*2</f>
         <v>2</v>
       </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">K56/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -2124,6 +2344,10 @@
         <f aca="false">G57/3*2</f>
         <v>2</v>
       </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">K57/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -2155,6 +2379,10 @@
         <f aca="false">G58/3*2</f>
         <v>2</v>
       </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">K58/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -2186,6 +2414,10 @@
         <f aca="false">G59/3*2</f>
         <v>2</v>
       </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">K59/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -2217,6 +2449,10 @@
         <f aca="false">G60/3*2</f>
         <v>2</v>
       </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">K60/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -2248,6 +2484,10 @@
         <f aca="false">G61/3*2</f>
         <v>2</v>
       </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">K61/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -2279,6 +2519,10 @@
         <f aca="false">G62/3*2</f>
         <v>2</v>
       </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">K62/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -2310,6 +2554,10 @@
         <f aca="false">G63/3*2</f>
         <v>2</v>
       </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">K63/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -2341,6 +2589,10 @@
         <f aca="false">G64/3*2</f>
         <v>2</v>
       </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">K64/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -2372,6 +2624,10 @@
         <f aca="false">G65/3*2</f>
         <v>2</v>
       </c>
+      <c r="L65" s="0" t="n">
+        <f aca="false">K65/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -2402,6 +2658,10 @@
       <c r="K66" s="0" t="n">
         <f aca="false">G66/3*2</f>
         <v>2</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">K66/2</f>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,6 +2676,10 @@
       <c r="K67" s="0" t="n">
         <f aca="false">SUM(K2:K66)</f>
         <v>300</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <f aca="false">SUM(L2:L66)</f>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
